--- a/models/Multi_dimentional_data_covar/04b_Bundeskanzler_1.xlsx
+++ b/models/Multi_dimentional_data_covar/04b_Bundeskanzler_1.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="15180" windowHeight="8835"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="15180" windowHeight="8840"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="92512"/>
+  <calcPr calcId="92512" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Nutzungsbestimmungen</t>
   </si>
@@ -31,6 +36,9 @@
   </si>
   <si>
     <t>Schulz</t>
+  </si>
+  <si>
+    <t>Datum</t>
   </si>
 </sst>
 </file>
@@ -103,14 +111,14 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -118,23 +126,23 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -181,7 +189,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -484,16 +492,16 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5:G5"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="1.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="1.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="B1" s="18" t="s">
         <v>0</v>
       </c>
@@ -503,7 +511,7 @@
       <c r="F1" s="19"/>
       <c r="G1" s="19"/>
     </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" s="4" customFormat="1">
       <c r="B2" s="20" t="s">
         <v>1</v>
       </c>
@@ -513,7 +521,7 @@
       <c r="F2" s="19"/>
       <c r="G2" s="19"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
       <c r="D3" s="19"/>
@@ -521,12 +529,12 @@
       <c r="F3" s="19"/>
       <c r="G3" s="19"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="20" customHeight="1">
       <c r="B5" s="21" t="s">
         <v>3</v>
       </c>
@@ -536,7 +544,10 @@
       <c r="F5" s="22"/>
       <c r="G5" s="23"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
       <c r="C8" s="2" t="s">
         <v>2</v>
       </c>
@@ -544,10 +555,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" s="16"/>
       <c r="B10" s="15">
         <v>42671</v>
@@ -559,7 +570,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11" s="16"/>
       <c r="B11" s="15">
         <v>42699</v>
@@ -571,7 +582,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12" s="16"/>
       <c r="B12" s="15">
         <v>42748</v>
@@ -583,7 +594,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13" s="16"/>
       <c r="B13" s="15">
         <v>42762</v>
@@ -595,7 +606,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14" s="16"/>
       <c r="B14" s="15">
         <v>42783</v>
@@ -607,7 +618,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15" s="16"/>
       <c r="B15" s="15">
         <v>42804</v>
@@ -619,7 +630,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16" s="16"/>
       <c r="B16" s="15">
         <v>42832</v>
@@ -631,7 +642,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:4">
       <c r="B17" s="15">
         <v>42853</v>
       </c>
@@ -642,644 +653,644 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:4">
       <c r="B18" s="15"/>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:4">
       <c r="B19" s="15"/>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:4">
       <c r="B20" s="15"/>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:4">
       <c r="B21" s="15"/>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:4">
       <c r="B22" s="15"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:4">
       <c r="B23" s="15"/>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:4">
       <c r="B24" s="15"/>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:4">
       <c r="B25" s="15"/>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:4">
       <c r="B26" s="15"/>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:4">
       <c r="B27" s="15"/>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:4">
       <c r="B28" s="15"/>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:4">
       <c r="B29" s="15"/>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:4">
       <c r="B30" s="15"/>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:4">
       <c r="B31" s="15"/>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:4">
       <c r="B32" s="6"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:4">
       <c r="B33" s="6"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:4">
       <c r="B34" s="6"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:4">
       <c r="B35" s="6"/>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:4">
       <c r="B36" s="6"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:4">
       <c r="B37" s="6"/>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:4">
       <c r="B38" s="6"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:4">
       <c r="B39" s="6"/>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:4">
       <c r="B40" s="6"/>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:4">
       <c r="B41" s="6"/>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:4">
       <c r="B42" s="6"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:4">
       <c r="B43" s="6"/>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:4">
       <c r="B44" s="6"/>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:4">
       <c r="B45" s="6"/>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:4">
       <c r="B46" s="6"/>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:4">
       <c r="B47" s="6"/>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:4">
       <c r="B48" s="6"/>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:4">
       <c r="B49" s="6"/>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:4">
       <c r="B50" s="6"/>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:4">
       <c r="B51" s="6"/>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:4">
       <c r="B52" s="6"/>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:4">
       <c r="B53" s="6"/>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:4">
       <c r="B54" s="6"/>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:4">
       <c r="B55" s="6"/>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:4">
       <c r="B56" s="6"/>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
     </row>
-    <row r="57" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:4" s="5" customFormat="1">
       <c r="B57" s="6"/>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
     </row>
-    <row r="58" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:4" s="5" customFormat="1">
       <c r="B58" s="6"/>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:4">
       <c r="B59" s="8"/>
       <c r="C59" s="9"/>
       <c r="D59" s="9"/>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:4">
       <c r="B60" s="8"/>
       <c r="C60" s="9"/>
       <c r="D60" s="9"/>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:4">
       <c r="B61" s="8"/>
       <c r="C61" s="9"/>
       <c r="D61" s="9"/>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:4">
       <c r="B62" s="8"/>
       <c r="C62" s="9"/>
       <c r="D62" s="9"/>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:4">
       <c r="B63" s="10"/>
       <c r="C63" s="11"/>
       <c r="D63" s="11"/>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:4">
       <c r="B64" s="10"/>
       <c r="C64" s="11"/>
       <c r="D64" s="11"/>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:4">
       <c r="B65" s="10"/>
       <c r="C65" s="11"/>
       <c r="D65" s="11"/>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:4">
       <c r="B66" s="10"/>
       <c r="C66" s="11"/>
       <c r="D66" s="11"/>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:4">
       <c r="B67" s="10"/>
       <c r="C67" s="11"/>
       <c r="D67" s="11"/>
     </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:4">
       <c r="B68" s="10"/>
       <c r="C68" s="11"/>
       <c r="D68" s="11"/>
     </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:4">
       <c r="B69" s="10"/>
       <c r="C69" s="11"/>
       <c r="D69" s="11"/>
     </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:4">
       <c r="B70" s="10"/>
       <c r="C70" s="11"/>
       <c r="D70" s="11"/>
     </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:4">
       <c r="B71" s="10"/>
       <c r="C71" s="11"/>
       <c r="D71" s="11"/>
     </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:4">
       <c r="B72" s="10"/>
       <c r="C72" s="11"/>
       <c r="D72" s="11"/>
     </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:4">
       <c r="B73" s="10"/>
       <c r="C73" s="11"/>
       <c r="D73" s="11"/>
     </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:4">
       <c r="B74" s="10"/>
       <c r="C74" s="11"/>
       <c r="D74" s="11"/>
     </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:4">
       <c r="B75" s="10"/>
       <c r="C75" s="11"/>
       <c r="D75" s="11"/>
     </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:4">
       <c r="B76" s="10"/>
       <c r="C76" s="11"/>
       <c r="D76" s="11"/>
     </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:4">
       <c r="B77" s="10"/>
       <c r="C77" s="11"/>
       <c r="D77" s="11"/>
     </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:4">
       <c r="B78" s="10"/>
       <c r="C78" s="11"/>
       <c r="D78" s="11"/>
     </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:4">
       <c r="B79" s="10"/>
       <c r="C79" s="11"/>
       <c r="D79" s="11"/>
     </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:4">
       <c r="B80" s="10"/>
       <c r="C80" s="11"/>
       <c r="D80" s="11"/>
     </row>
-    <row r="81" spans="2:4" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:4" s="12" customFormat="1">
       <c r="B81" s="6"/>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
     </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:4">
       <c r="B82" s="1"/>
       <c r="C82" s="13"/>
       <c r="D82" s="13"/>
     </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:4">
       <c r="B83" s="1"/>
     </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:4">
       <c r="B84" s="1"/>
     </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:4">
       <c r="B85" s="1"/>
     </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:4">
       <c r="B86" s="1"/>
     </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:4">
       <c r="B87" s="1"/>
     </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:4">
       <c r="B88" s="1"/>
     </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:4">
       <c r="B89" s="1"/>
     </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:4">
       <c r="B90" s="1"/>
     </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:4">
       <c r="B91" s="1"/>
     </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:4">
       <c r="B92" s="1"/>
     </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:4">
       <c r="B93" s="1"/>
     </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:4">
       <c r="B94" s="1"/>
     </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:4">
       <c r="B95" s="1"/>
     </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:4">
       <c r="B96" s="1"/>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:2">
       <c r="B97" s="1"/>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:2">
       <c r="B98" s="1"/>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:2">
       <c r="B99" s="1"/>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:2">
       <c r="B100" s="1"/>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:2">
       <c r="B101" s="1"/>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:2">
       <c r="B102" s="1"/>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:2">
       <c r="B103" s="1"/>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:2">
       <c r="B104" s="1"/>
     </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:2">
       <c r="B105" s="1"/>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:2">
       <c r="B106" s="1"/>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:2">
       <c r="B107" s="1"/>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:2">
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:2">
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:2">
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:2">
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:2">
       <c r="B112" s="1"/>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:2">
       <c r="B113" s="1"/>
     </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:2">
       <c r="B114" s="1"/>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:2">
       <c r="B115" s="1"/>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:2">
       <c r="B116" s="1"/>
     </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:2">
       <c r="B117" s="1"/>
     </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:2">
       <c r="B118" s="1"/>
     </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:2">
       <c r="B119" s="1"/>
     </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:2">
       <c r="B120" s="1"/>
     </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:2">
       <c r="B121" s="1"/>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:2">
       <c r="B122" s="1"/>
     </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:2">
       <c r="B123" s="1"/>
     </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:2">
       <c r="B124" s="1"/>
     </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:2">
       <c r="B125" s="1"/>
     </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:2">
       <c r="B126" s="1"/>
     </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:2">
       <c r="B127" s="1"/>
     </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:2">
       <c r="B128" s="1"/>
     </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:2">
       <c r="B129" s="1"/>
     </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:2">
       <c r="B130" s="1"/>
     </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:2">
       <c r="B131" s="1"/>
     </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:2">
       <c r="B132" s="1"/>
     </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:2">
       <c r="B133" s="1"/>
     </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:2">
       <c r="B134" s="1"/>
     </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:2">
       <c r="B135" s="1"/>
     </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:2">
       <c r="B136" s="1"/>
     </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:2">
       <c r="B137" s="1"/>
     </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:2">
       <c r="B138" s="1"/>
     </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:2">
       <c r="B139" s="1"/>
     </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:2">
       <c r="B140" s="1"/>
     </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:2">
       <c r="B141" s="1"/>
     </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:2">
       <c r="B142" s="1"/>
     </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:2">
       <c r="B143" s="1"/>
     </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:2">
       <c r="B144" s="1"/>
     </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:2">
       <c r="B145" s="1"/>
     </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:2">
       <c r="B146" s="1"/>
     </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:2">
       <c r="B147" s="1"/>
     </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:2">
       <c r="B148" s="1"/>
     </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:2">
       <c r="B149" s="1"/>
     </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:2">
       <c r="B150" s="1"/>
     </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:2">
       <c r="B151" s="1"/>
     </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:2">
       <c r="B152" s="1"/>
     </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:2">
       <c r="B153" s="1"/>
     </row>
-    <row r="154" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:2">
       <c r="B154" s="1"/>
     </row>
-    <row r="155" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:2">
       <c r="B155" s="1"/>
     </row>
-    <row r="156" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:2">
       <c r="B156" s="1"/>
     </row>
-    <row r="157" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:2">
       <c r="B157" s="1"/>
     </row>
-    <row r="158" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:2">
       <c r="B158" s="1"/>
     </row>
-    <row r="159" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:2">
       <c r="B159" s="1"/>
     </row>
-    <row r="160" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:2">
       <c r="B160" s="1"/>
     </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:2">
       <c r="B161" s="1"/>
     </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:2">
       <c r="B162" s="1"/>
     </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:2">
       <c r="B163" s="1"/>
     </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:2">
       <c r="B164" s="1"/>
     </row>
-    <row r="165" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:2">
       <c r="B165" s="1"/>
     </row>
-    <row r="166" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:2">
       <c r="B166" s="1"/>
     </row>
-    <row r="167" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:2">
       <c r="B167" s="1"/>
     </row>
-    <row r="168" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:2">
       <c r="B168" s="1"/>
     </row>
-    <row r="169" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:2">
       <c r="B169" s="1"/>
     </row>
-    <row r="170" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:2">
       <c r="B170" s="1"/>
     </row>
-    <row r="171" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:2">
       <c r="B171" s="1"/>
     </row>
-    <row r="172" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:2">
       <c r="B172" s="1"/>
     </row>
-    <row r="173" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:2">
       <c r="B173" s="1"/>
     </row>
-    <row r="174" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:2">
       <c r="B174" s="1"/>
     </row>
-    <row r="175" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:2">
       <c r="B175" s="1"/>
     </row>
-    <row r="176" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:2">
       <c r="B176" s="1"/>
     </row>
-    <row r="177" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:2">
       <c r="B177" s="1"/>
     </row>
-    <row r="178" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="178" spans="2:2">
       <c r="B178" s="1"/>
     </row>
-    <row r="179" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="179" spans="2:2">
       <c r="B179" s="1"/>
     </row>
-    <row r="180" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="180" spans="2:2">
       <c r="B180" s="1"/>
     </row>
-    <row r="181" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="181" spans="2:2">
       <c r="B181" s="1"/>
     </row>
-    <row r="182" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:2">
       <c r="B182" s="1"/>
     </row>
-    <row r="183" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="183" spans="2:2">
       <c r="B183" s="1"/>
     </row>
-    <row r="184" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="184" spans="2:2">
       <c r="B184" s="1"/>
     </row>
-    <row r="185" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="185" spans="2:2">
       <c r="B185" s="1"/>
     </row>
-    <row r="186" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="186" spans="2:2">
       <c r="B186" s="1"/>
     </row>
-    <row r="187" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="187" spans="2:2">
       <c r="B187" s="1"/>
     </row>
-    <row r="188" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="188" spans="2:2">
       <c r="B188" s="1"/>
     </row>
-    <row r="189" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="189" spans="2:2">
       <c r="B189" s="1"/>
     </row>
-    <row r="190" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="190" spans="2:2">
       <c r="B190" s="1"/>
     </row>
-    <row r="191" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="191" spans="2:2">
       <c r="B191" s="1"/>
     </row>
-    <row r="192" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="192" spans="2:2">
       <c r="B192" s="1"/>
     </row>
-    <row r="193" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="193" spans="2:2">
       <c r="B193" s="1"/>
     </row>
-    <row r="194" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="194" spans="2:2">
       <c r="B194" s="1"/>
     </row>
-    <row r="195" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="195" spans="2:2">
       <c r="B195" s="1"/>
     </row>
   </sheetData>
@@ -1290,8 +1301,13 @@
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1301,11 +1317,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
   <headerFooter alignWithMargins="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1315,10 +1336,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
   <headerFooter alignWithMargins="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>